--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10a-Fzd1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H2">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5018866666666666</v>
+        <v>1.090710333333333</v>
       </c>
       <c r="N2">
-        <v>1.50566</v>
+        <v>3.272131</v>
       </c>
       <c r="O2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="P2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="Q2">
-        <v>0.02464514476666667</v>
+        <v>0.1409946705095556</v>
       </c>
       <c r="R2">
-        <v>0.2218063029</v>
+        <v>1.268952034586</v>
       </c>
       <c r="S2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
       <c r="T2">
-        <v>0.02325346250969518</v>
+        <v>0.0488470045579656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H3">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>51.019709</v>
       </c>
       <c r="O3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="P3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="Q3">
-        <v>0.8351076034816669</v>
+        <v>2.198416585383778</v>
       </c>
       <c r="R3">
-        <v>7.515968431335001</v>
+        <v>19.785749268454</v>
       </c>
       <c r="S3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
       <c r="T3">
-        <v>0.7879500620904175</v>
+        <v>0.7616320856558244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H4">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4244703333333333</v>
+        <v>0.740281</v>
       </c>
       <c r="N4">
-        <v>1.273411</v>
+        <v>2.220843</v>
       </c>
       <c r="O4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="P4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="Q4">
-        <v>0.02084361571833334</v>
+        <v>0.09569513782866666</v>
       </c>
       <c r="R4">
-        <v>0.187592541465</v>
+        <v>0.861256240458</v>
       </c>
       <c r="S4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
       <c r="T4">
-        <v>0.01966660132296365</v>
+        <v>0.03315317392351528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H5">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.007616666666667</v>
+        <v>2.784013333333333</v>
       </c>
       <c r="N5">
-        <v>9.02285</v>
+        <v>8.352039999999999</v>
       </c>
       <c r="O5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="P5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="Q5">
-        <v>0.1476890164166667</v>
+        <v>0.3598856915822222</v>
       </c>
       <c r="R5">
-        <v>1.32920114775</v>
+        <v>3.238971224239999</v>
       </c>
       <c r="S5">
-        <v>0.139349191853143</v>
+        <v>0.1246808688124989</v>
       </c>
       <c r="T5">
-        <v>0.1393491918531429</v>
+        <v>0.1246808688124989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H6">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2431653333333333</v>
+        <v>0.2710316666666667</v>
       </c>
       <c r="N6">
-        <v>0.729496</v>
+        <v>0.813095</v>
       </c>
       <c r="O6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="P6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="Q6">
-        <v>0.01194063369333334</v>
+        <v>0.03503590217444445</v>
       </c>
       <c r="R6">
-        <v>0.10746570324</v>
+        <v>0.31532311957</v>
       </c>
       <c r="S6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
       <c r="T6">
-        <v>0.01126636019218987</v>
+        <v>0.01213803945228936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H7">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3996003333333333</v>
+        <v>0.436508</v>
       </c>
       <c r="N7">
-        <v>1.198801</v>
+        <v>1.309524</v>
       </c>
       <c r="O7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="P7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="Q7">
-        <v>0.01962237436833334</v>
+        <v>0.05642680714933333</v>
       </c>
       <c r="R7">
-        <v>0.176601369315</v>
+        <v>0.5078412643439999</v>
       </c>
       <c r="S7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
       <c r="T7">
-        <v>0.01851432203159086</v>
+        <v>0.01954882759790648</v>
       </c>
     </row>
   </sheetData>
